--- a/表單1.xlsx
+++ b/表單1.xlsx
@@ -2887,6 +2887,267 @@
       <c r="GR4" t="n">
         <v>268166</v>
       </c>
+      <c r="GS4" t="n">
+        <v>237764</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>207799</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>790556</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>664949</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>258669</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>221116</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>204124</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>224082</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>3976360</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>1010652</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>797982</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>787677</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>974996</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>834260</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>830930</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1237465</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>962923</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>756052</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>894886</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>992030</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>899955</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>10979808</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>234079</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>198917</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>188122</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>337798</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>305604</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>219611</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>227069</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>146553</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>149776</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>207093</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>207867</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>232841</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2655330</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2234</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2315</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2541</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>5154</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>8432</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>8924</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>15247</v>
+      </c>
+      <c r="II4" t="n">
+        <v>14633</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>17405</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>16612</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>8769</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>4490</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>106756</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>111855</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>102235</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>171173</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>220845</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>246918</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>222641</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>286144</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>221915</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>174176</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>240982</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>194181</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>148428</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2341493</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>1993972</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>1407473</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>1301987</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>946546</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>538985</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>306934</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>293589</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>277676</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>240202</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>442581</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>417696</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>461372</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>8629013</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>4390635</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>3679585</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2345683</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2475720</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2045422</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>1345769</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>1874421</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>1476472</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>1587190</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>3572801</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>1765171</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2657783</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>29216652</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3489,6 +3750,267 @@
       <c r="GR5" t="n">
         <v>297357</v>
       </c>
+      <c r="GS5" t="n">
+        <v>246352</v>
+      </c>
+      <c r="GT5" t="n">
+        <v>332240</v>
+      </c>
+      <c r="GU5" t="n">
+        <v>512440</v>
+      </c>
+      <c r="GV5" t="n">
+        <v>437142</v>
+      </c>
+      <c r="GW5" t="n">
+        <v>232727</v>
+      </c>
+      <c r="GX5" t="n">
+        <v>258214</v>
+      </c>
+      <c r="GY5" t="n">
+        <v>232409</v>
+      </c>
+      <c r="GZ5" t="n">
+        <v>215014</v>
+      </c>
+      <c r="HA5" t="n">
+        <v>3592635</v>
+      </c>
+      <c r="HB5" t="n">
+        <v>701424</v>
+      </c>
+      <c r="HC5" t="n">
+        <v>1293743</v>
+      </c>
+      <c r="HD5" t="n">
+        <v>916687</v>
+      </c>
+      <c r="HE5" t="n">
+        <v>1045985</v>
+      </c>
+      <c r="HF5" t="n">
+        <v>877085</v>
+      </c>
+      <c r="HG5" t="n">
+        <v>983204</v>
+      </c>
+      <c r="HH5" t="n">
+        <v>1232133</v>
+      </c>
+      <c r="HI5" t="n">
+        <v>1286913</v>
+      </c>
+      <c r="HJ5" t="n">
+        <v>853652</v>
+      </c>
+      <c r="HK5" t="n">
+        <v>916047</v>
+      </c>
+      <c r="HL5" t="n">
+        <v>988463</v>
+      </c>
+      <c r="HM5" t="n">
+        <v>1008016</v>
+      </c>
+      <c r="HN5" t="n">
+        <v>12103352</v>
+      </c>
+      <c r="HO5" t="n">
+        <v>194662</v>
+      </c>
+      <c r="HP5" t="n">
+        <v>338181</v>
+      </c>
+      <c r="HQ5" t="n">
+        <v>344129</v>
+      </c>
+      <c r="HR5" t="n">
+        <v>516728</v>
+      </c>
+      <c r="HS5" t="n">
+        <v>396522</v>
+      </c>
+      <c r="HT5" t="n">
+        <v>387036</v>
+      </c>
+      <c r="HU5" t="n">
+        <v>296293</v>
+      </c>
+      <c r="HV5" t="n">
+        <v>291624</v>
+      </c>
+      <c r="HW5" t="n">
+        <v>249152</v>
+      </c>
+      <c r="HX5" t="n">
+        <v>404723</v>
+      </c>
+      <c r="HY5" t="n">
+        <v>393304</v>
+      </c>
+      <c r="HZ5" t="n">
+        <v>329977</v>
+      </c>
+      <c r="IA5" t="n">
+        <v>4142331</v>
+      </c>
+      <c r="IB5" t="n">
+        <v>2213</v>
+      </c>
+      <c r="IC5" t="n">
+        <v>4375</v>
+      </c>
+      <c r="ID5" t="n">
+        <v>4945</v>
+      </c>
+      <c r="IE5" t="n">
+        <v>9120</v>
+      </c>
+      <c r="IF5" t="n">
+        <v>11051</v>
+      </c>
+      <c r="IG5" t="n">
+        <v>19150</v>
+      </c>
+      <c r="IH5" t="n">
+        <v>20742</v>
+      </c>
+      <c r="II5" t="n">
+        <v>17933</v>
+      </c>
+      <c r="IJ5" t="n">
+        <v>20246</v>
+      </c>
+      <c r="IK5" t="n">
+        <v>16653</v>
+      </c>
+      <c r="IL5" t="n">
+        <v>12006</v>
+      </c>
+      <c r="IM5" t="n">
+        <v>12495</v>
+      </c>
+      <c r="IN5" t="n">
+        <v>150929</v>
+      </c>
+      <c r="IO5" t="n">
+        <v>86191</v>
+      </c>
+      <c r="IP5" t="n">
+        <v>116001</v>
+      </c>
+      <c r="IQ5" t="n">
+        <v>130219</v>
+      </c>
+      <c r="IR5" t="n">
+        <v>192439</v>
+      </c>
+      <c r="IS5" t="n">
+        <v>215811</v>
+      </c>
+      <c r="IT5" t="n">
+        <v>231561</v>
+      </c>
+      <c r="IU5" t="n">
+        <v>253495</v>
+      </c>
+      <c r="IV5" t="n">
+        <v>215040</v>
+      </c>
+      <c r="IW5" t="n">
+        <v>198415</v>
+      </c>
+      <c r="IX5" t="n">
+        <v>217223</v>
+      </c>
+      <c r="IY5" t="n">
+        <v>188678</v>
+      </c>
+      <c r="IZ5" t="n">
+        <v>132576</v>
+      </c>
+      <c r="JA5" t="n">
+        <v>2177649</v>
+      </c>
+      <c r="JB5" t="n">
+        <v>250048</v>
+      </c>
+      <c r="JC5" t="n">
+        <v>2749812</v>
+      </c>
+      <c r="JD5" t="n">
+        <v>1439810</v>
+      </c>
+      <c r="JE5" t="n">
+        <v>747806</v>
+      </c>
+      <c r="JF5" t="n">
+        <v>243305</v>
+      </c>
+      <c r="JG5" t="n">
+        <v>256768</v>
+      </c>
+      <c r="JH5" t="n">
+        <v>302008</v>
+      </c>
+      <c r="JI5" t="n">
+        <v>299075</v>
+      </c>
+      <c r="JJ5" t="n">
+        <v>364475</v>
+      </c>
+      <c r="JK5" t="n">
+        <v>282283</v>
+      </c>
+      <c r="JL5" t="n">
+        <v>317032</v>
+      </c>
+      <c r="JM5" t="n">
+        <v>315675</v>
+      </c>
+      <c r="JN5" t="n">
+        <v>7568097</v>
+      </c>
+      <c r="JO5" t="n">
+        <v>1851779</v>
+      </c>
+      <c r="JP5" t="n">
+        <v>7351158</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>2077225</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>2100509</v>
+      </c>
+      <c r="JS5" t="n">
+        <v>1952285</v>
+      </c>
+      <c r="JT5" t="n">
+        <v>1925890</v>
+      </c>
+      <c r="JU5" t="n">
+        <v>2181548</v>
+      </c>
+      <c r="JV5" t="n">
+        <v>2467554</v>
+      </c>
+      <c r="JW5" t="n">
+        <v>1881926</v>
+      </c>
+      <c r="JX5" t="n">
+        <v>3940336</v>
+      </c>
+      <c r="JY5" t="n">
+        <v>2062510</v>
+      </c>
+      <c r="JZ5" t="n">
+        <v>2237018</v>
+      </c>
+      <c r="KA5" t="n">
+        <v>32029738</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -4091,6 +4613,267 @@
       <c r="GR6" t="n">
         <v>301386</v>
       </c>
+      <c r="GS6" t="n">
+        <v>313636</v>
+      </c>
+      <c r="GT6" t="n">
+        <v>505204</v>
+      </c>
+      <c r="GU6" t="n">
+        <v>780717</v>
+      </c>
+      <c r="GV6" t="n">
+        <v>656233</v>
+      </c>
+      <c r="GW6" t="n">
+        <v>289890</v>
+      </c>
+      <c r="GX6" t="n">
+        <v>325545</v>
+      </c>
+      <c r="GY6" t="n">
+        <v>253157</v>
+      </c>
+      <c r="GZ6" t="n">
+        <v>232761</v>
+      </c>
+      <c r="HA6" t="n">
+        <v>4521639</v>
+      </c>
+      <c r="HB6" t="n">
+        <v>1063266</v>
+      </c>
+      <c r="HC6" t="n">
+        <v>1376415</v>
+      </c>
+      <c r="HD6" t="n">
+        <v>1233403</v>
+      </c>
+      <c r="HE6" t="n">
+        <v>1293279</v>
+      </c>
+      <c r="HF6" t="n">
+        <v>1339885</v>
+      </c>
+      <c r="HG6" t="n">
+        <v>1270482</v>
+      </c>
+      <c r="HH6" t="n">
+        <v>1502947</v>
+      </c>
+      <c r="HI6" t="n">
+        <v>1545753</v>
+      </c>
+      <c r="HJ6" t="n">
+        <v>1175223</v>
+      </c>
+      <c r="HK6" t="n">
+        <v>1327597</v>
+      </c>
+      <c r="HL6" t="n">
+        <v>1084018</v>
+      </c>
+      <c r="HM6" t="n">
+        <v>1164701</v>
+      </c>
+      <c r="HN6" t="n">
+        <v>15376969</v>
+      </c>
+      <c r="HO6" t="n">
+        <v>226514</v>
+      </c>
+      <c r="HP6" t="n">
+        <v>282998</v>
+      </c>
+      <c r="HQ6" t="n">
+        <v>329991</v>
+      </c>
+      <c r="HR6" t="n">
+        <v>817730</v>
+      </c>
+      <c r="HS6" t="n">
+        <v>457455</v>
+      </c>
+      <c r="HT6" t="n">
+        <v>353897</v>
+      </c>
+      <c r="HU6" t="n">
+        <v>291823</v>
+      </c>
+      <c r="HV6" t="n">
+        <v>283215</v>
+      </c>
+      <c r="HW6" t="n">
+        <v>255457</v>
+      </c>
+      <c r="HX6" t="n">
+        <v>390558</v>
+      </c>
+      <c r="HY6" t="n">
+        <v>279461</v>
+      </c>
+      <c r="HZ6" t="n">
+        <v>325832</v>
+      </c>
+      <c r="IA6" t="n">
+        <v>4294931</v>
+      </c>
+      <c r="IB6" t="n">
+        <v>5189</v>
+      </c>
+      <c r="IC6" t="n">
+        <v>5866</v>
+      </c>
+      <c r="ID6" t="n">
+        <v>8205</v>
+      </c>
+      <c r="IE6" t="n">
+        <v>12086</v>
+      </c>
+      <c r="IF6" t="n">
+        <v>16053</v>
+      </c>
+      <c r="IG6" t="n">
+        <v>21068</v>
+      </c>
+      <c r="IH6" t="n">
+        <v>23387</v>
+      </c>
+      <c r="II6" t="n">
+        <v>20548</v>
+      </c>
+      <c r="IJ6" t="n">
+        <v>13796</v>
+      </c>
+      <c r="IK6" t="n">
+        <v>9581</v>
+      </c>
+      <c r="IL6" t="n">
+        <v>5101</v>
+      </c>
+      <c r="IM6" t="n">
+        <v>3315</v>
+      </c>
+      <c r="IN6" t="n">
+        <v>144195</v>
+      </c>
+      <c r="IO6" t="n">
+        <v>79719</v>
+      </c>
+      <c r="IP6" t="n">
+        <v>116978</v>
+      </c>
+      <c r="IQ6" t="n">
+        <v>175147</v>
+      </c>
+      <c r="IR6" t="n">
+        <v>240596</v>
+      </c>
+      <c r="IS6" t="n">
+        <v>246267</v>
+      </c>
+      <c r="IT6" t="n">
+        <v>244940</v>
+      </c>
+      <c r="IU6" t="n">
+        <v>298547</v>
+      </c>
+      <c r="IV6" t="n">
+        <v>218875</v>
+      </c>
+      <c r="IW6" t="n">
+        <v>167971</v>
+      </c>
+      <c r="IX6" t="n">
+        <v>227255</v>
+      </c>
+      <c r="IY6" t="n">
+        <v>185552</v>
+      </c>
+      <c r="IZ6" t="n">
+        <v>145490</v>
+      </c>
+      <c r="JA6" t="n">
+        <v>2347337</v>
+      </c>
+      <c r="JB6" t="n">
+        <v>937950</v>
+      </c>
+      <c r="JC6" t="n">
+        <v>2502307</v>
+      </c>
+      <c r="JD6" t="n">
+        <v>713904</v>
+      </c>
+      <c r="JE6" t="n">
+        <v>785676</v>
+      </c>
+      <c r="JF6" t="n">
+        <v>370804</v>
+      </c>
+      <c r="JG6" t="n">
+        <v>312329</v>
+      </c>
+      <c r="JH6" t="n">
+        <v>294468</v>
+      </c>
+      <c r="JI6" t="n">
+        <v>317751</v>
+      </c>
+      <c r="JJ6" t="n">
+        <v>305676</v>
+      </c>
+      <c r="JK6" t="n">
+        <v>287708</v>
+      </c>
+      <c r="JL6" t="n">
+        <v>350914</v>
+      </c>
+      <c r="JM6" t="n">
+        <v>331997</v>
+      </c>
+      <c r="JN6" t="n">
+        <v>7511484</v>
+      </c>
+      <c r="JO6" t="n">
+        <v>2730560</v>
+      </c>
+      <c r="JP6" t="n">
+        <v>5679482</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>2415456</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>2293724</v>
+      </c>
+      <c r="JS6" t="n">
+        <v>2188746</v>
+      </c>
+      <c r="JT6" t="n">
+        <v>1971012</v>
+      </c>
+      <c r="JU6" t="n">
+        <v>2494370</v>
+      </c>
+      <c r="JV6" t="n">
+        <v>2199827</v>
+      </c>
+      <c r="JW6" t="n">
+        <v>1786848</v>
+      </c>
+      <c r="JX6" t="n">
+        <v>2269967</v>
+      </c>
+      <c r="JY6" t="n">
+        <v>2254570</v>
+      </c>
+      <c r="JZ6" t="n">
+        <v>2231224</v>
+      </c>
+      <c r="KA6" t="n">
+        <v>30515786</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -4693,6 +5476,267 @@
       <c r="GR7" t="n">
         <v>319186</v>
       </c>
+      <c r="GS7" t="n">
+        <v>305499</v>
+      </c>
+      <c r="GT7" t="n">
+        <v>351734</v>
+      </c>
+      <c r="GU7" t="n">
+        <v>494885</v>
+      </c>
+      <c r="GV7" t="n">
+        <v>490475</v>
+      </c>
+      <c r="GW7" t="n">
+        <v>259675</v>
+      </c>
+      <c r="GX7" t="n">
+        <v>307721</v>
+      </c>
+      <c r="GY7" t="n">
+        <v>259858</v>
+      </c>
+      <c r="GZ7" t="n">
+        <v>209015</v>
+      </c>
+      <c r="HA7" t="n">
+        <v>3964148</v>
+      </c>
+      <c r="HB7" t="n">
+        <v>982903</v>
+      </c>
+      <c r="HC7" t="n">
+        <v>1279823</v>
+      </c>
+      <c r="HD7" t="n">
+        <v>858630</v>
+      </c>
+      <c r="HE7" t="n">
+        <v>1047076</v>
+      </c>
+      <c r="HF7" t="n">
+        <v>1121084</v>
+      </c>
+      <c r="HG7" t="n">
+        <v>1067332</v>
+      </c>
+      <c r="HH7" t="n">
+        <v>1374561</v>
+      </c>
+      <c r="HI7" t="n">
+        <v>1288840</v>
+      </c>
+      <c r="HJ7" t="n">
+        <v>1006621</v>
+      </c>
+      <c r="HK7" t="n">
+        <v>1142066</v>
+      </c>
+      <c r="HL7" t="n">
+        <v>994736</v>
+      </c>
+      <c r="HM7" t="n">
+        <v>870222</v>
+      </c>
+      <c r="HN7" t="n">
+        <v>13033894</v>
+      </c>
+      <c r="HO7" t="n">
+        <v>284806</v>
+      </c>
+      <c r="HP7" t="n">
+        <v>312823</v>
+      </c>
+      <c r="HQ7" t="n">
+        <v>289390</v>
+      </c>
+      <c r="HR7" t="n">
+        <v>753530</v>
+      </c>
+      <c r="HS7" t="n">
+        <v>404526</v>
+      </c>
+      <c r="HT7" t="n">
+        <v>244337</v>
+      </c>
+      <c r="HU7" t="n">
+        <v>209210</v>
+      </c>
+      <c r="HV7" t="n">
+        <v>185971</v>
+      </c>
+      <c r="HW7" t="n">
+        <v>228688</v>
+      </c>
+      <c r="HX7" t="n">
+        <v>307508</v>
+      </c>
+      <c r="HY7" t="n">
+        <v>293529</v>
+      </c>
+      <c r="HZ7" t="n">
+        <v>244913</v>
+      </c>
+      <c r="IA7" t="n">
+        <v>3759231</v>
+      </c>
+      <c r="IB7" t="n">
+        <v>2800</v>
+      </c>
+      <c r="IC7" t="n">
+        <v>2513</v>
+      </c>
+      <c r="ID7" t="n">
+        <v>4701</v>
+      </c>
+      <c r="IE7" t="n">
+        <v>15341</v>
+      </c>
+      <c r="IF7" t="n">
+        <v>17108</v>
+      </c>
+      <c r="IG7" t="n">
+        <v>23804</v>
+      </c>
+      <c r="IH7" t="n">
+        <v>21286</v>
+      </c>
+      <c r="II7" t="n">
+        <v>18283</v>
+      </c>
+      <c r="IJ7" t="n">
+        <v>17681</v>
+      </c>
+      <c r="IK7" t="n">
+        <v>15284</v>
+      </c>
+      <c r="IL7" t="n">
+        <v>9899</v>
+      </c>
+      <c r="IM7" t="n">
+        <v>7619</v>
+      </c>
+      <c r="IN7" t="n">
+        <v>156319</v>
+      </c>
+      <c r="IO7" t="n">
+        <v>140669</v>
+      </c>
+      <c r="IP7" t="n">
+        <v>138675</v>
+      </c>
+      <c r="IQ7" t="n">
+        <v>140966</v>
+      </c>
+      <c r="IR7" t="n">
+        <v>196881</v>
+      </c>
+      <c r="IS7" t="n">
+        <v>236286</v>
+      </c>
+      <c r="IT7" t="n">
+        <v>207585</v>
+      </c>
+      <c r="IU7" t="n">
+        <v>252842</v>
+      </c>
+      <c r="IV7" t="n">
+        <v>232656</v>
+      </c>
+      <c r="IW7" t="n">
+        <v>193536</v>
+      </c>
+      <c r="IX7" t="n">
+        <v>272618</v>
+      </c>
+      <c r="IY7" t="n">
+        <v>242988</v>
+      </c>
+      <c r="IZ7" t="n">
+        <v>192264</v>
+      </c>
+      <c r="JA7" t="n">
+        <v>2447966</v>
+      </c>
+      <c r="JB7" t="n">
+        <v>353501</v>
+      </c>
+      <c r="JC7" t="n">
+        <v>2492831</v>
+      </c>
+      <c r="JD7" t="n">
+        <v>1624050</v>
+      </c>
+      <c r="JE7" t="n">
+        <v>658185</v>
+      </c>
+      <c r="JF7" t="n">
+        <v>409152</v>
+      </c>
+      <c r="JG7" t="n">
+        <v>391895</v>
+      </c>
+      <c r="JH7" t="n">
+        <v>349245</v>
+      </c>
+      <c r="JI7" t="n">
+        <v>279736</v>
+      </c>
+      <c r="JJ7" t="n">
+        <v>305490</v>
+      </c>
+      <c r="JK7" t="n">
+        <v>305249</v>
+      </c>
+      <c r="JL7" t="n">
+        <v>275324</v>
+      </c>
+      <c r="JM7" t="n">
+        <v>278965</v>
+      </c>
+      <c r="JN7" t="n">
+        <v>7723623</v>
+      </c>
+      <c r="JO7" t="n">
+        <v>2626926</v>
+      </c>
+      <c r="JP7" t="n">
+        <v>3592666</v>
+      </c>
+      <c r="JQ7" t="n">
+        <v>2609069</v>
+      </c>
+      <c r="JR7" t="n">
+        <v>2238806</v>
+      </c>
+      <c r="JS7" t="n">
+        <v>2154395</v>
+      </c>
+      <c r="JT7" t="n">
+        <v>1670041</v>
+      </c>
+      <c r="JU7" t="n">
+        <v>2181358</v>
+      </c>
+      <c r="JV7" t="n">
+        <v>1946937</v>
+      </c>
+      <c r="JW7" t="n">
+        <v>1567171</v>
+      </c>
+      <c r="JX7" t="n">
+        <v>3380625</v>
+      </c>
+      <c r="JY7" t="n">
+        <v>2413770</v>
+      </c>
+      <c r="JZ7" t="n">
+        <v>2365975</v>
+      </c>
+      <c r="KA7" t="n">
+        <v>28747739</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -5295,6 +6339,267 @@
       <c r="GR8" t="n">
         <v>414447</v>
       </c>
+      <c r="GS8" t="n">
+        <v>382278</v>
+      </c>
+      <c r="GT8" t="n">
+        <v>352435</v>
+      </c>
+      <c r="GU8" t="n">
+        <v>522848</v>
+      </c>
+      <c r="GV8" t="n">
+        <v>503362</v>
+      </c>
+      <c r="GW8" t="n">
+        <v>230280</v>
+      </c>
+      <c r="GX8" t="n">
+        <v>227943</v>
+      </c>
+      <c r="GY8" t="n">
+        <v>232697</v>
+      </c>
+      <c r="GZ8" t="n">
+        <v>267420</v>
+      </c>
+      <c r="HA8" t="n">
+        <v>4636168</v>
+      </c>
+      <c r="HB8" t="n">
+        <v>930237</v>
+      </c>
+      <c r="HC8" t="n">
+        <v>1575270</v>
+      </c>
+      <c r="HD8" t="n">
+        <v>912589</v>
+      </c>
+      <c r="HE8" t="n">
+        <v>960532</v>
+      </c>
+      <c r="HF8" t="n">
+        <v>878511</v>
+      </c>
+      <c r="HG8" t="n">
+        <v>824591</v>
+      </c>
+      <c r="HH8" t="n">
+        <v>1084953</v>
+      </c>
+      <c r="HI8" t="n">
+        <v>967212</v>
+      </c>
+      <c r="HJ8" t="n">
+        <v>546743</v>
+      </c>
+      <c r="HK8" t="n">
+        <v>720222</v>
+      </c>
+      <c r="HL8" t="n">
+        <v>668939</v>
+      </c>
+      <c r="HM8" t="n">
+        <v>678402</v>
+      </c>
+      <c r="HN8" t="n">
+        <v>10748201</v>
+      </c>
+      <c r="HO8" t="n">
+        <v>181519</v>
+      </c>
+      <c r="HP8" t="n">
+        <v>263925</v>
+      </c>
+      <c r="HQ8" t="n">
+        <v>163658</v>
+      </c>
+      <c r="HR8" t="n">
+        <v>264349</v>
+      </c>
+      <c r="HS8" t="n">
+        <v>316226</v>
+      </c>
+      <c r="HT8" t="n">
+        <v>168868</v>
+      </c>
+      <c r="HU8" t="n">
+        <v>185337</v>
+      </c>
+      <c r="HV8" t="n">
+        <v>146866</v>
+      </c>
+      <c r="HW8" t="n">
+        <v>140493</v>
+      </c>
+      <c r="HX8" t="n">
+        <v>238529</v>
+      </c>
+      <c r="HY8" t="n">
+        <v>295657</v>
+      </c>
+      <c r="HZ8" t="n">
+        <v>401468</v>
+      </c>
+      <c r="IA8" t="n">
+        <v>2766895</v>
+      </c>
+      <c r="IB8" t="n">
+        <v>3149</v>
+      </c>
+      <c r="IC8" t="n">
+        <v>3566</v>
+      </c>
+      <c r="ID8" t="n">
+        <v>5332</v>
+      </c>
+      <c r="IE8" t="n">
+        <v>10012</v>
+      </c>
+      <c r="IF8" t="n">
+        <v>15529</v>
+      </c>
+      <c r="IG8" t="n">
+        <v>18172</v>
+      </c>
+      <c r="IH8" t="n">
+        <v>16871</v>
+      </c>
+      <c r="II8" t="n">
+        <v>13834</v>
+      </c>
+      <c r="IJ8" t="n">
+        <v>9759</v>
+      </c>
+      <c r="IK8" t="n">
+        <v>8453</v>
+      </c>
+      <c r="IL8" t="n">
+        <v>3932</v>
+      </c>
+      <c r="IM8" t="n">
+        <v>2672</v>
+      </c>
+      <c r="IN8" t="n">
+        <v>111281</v>
+      </c>
+      <c r="IO8" t="n">
+        <v>155279</v>
+      </c>
+      <c r="IP8" t="n">
+        <v>154377</v>
+      </c>
+      <c r="IQ8" t="n">
+        <v>190483</v>
+      </c>
+      <c r="IR8" t="n">
+        <v>224538</v>
+      </c>
+      <c r="IS8" t="n">
+        <v>294795</v>
+      </c>
+      <c r="IT8" t="n">
+        <v>272200</v>
+      </c>
+      <c r="IU8" t="n">
+        <v>282492</v>
+      </c>
+      <c r="IV8" t="n">
+        <v>241661</v>
+      </c>
+      <c r="IW8" t="n">
+        <v>162362</v>
+      </c>
+      <c r="IX8" t="n">
+        <v>255773</v>
+      </c>
+      <c r="IY8" t="n">
+        <v>224583</v>
+      </c>
+      <c r="IZ8" t="n">
+        <v>182752</v>
+      </c>
+      <c r="JA8" t="n">
+        <v>2641295</v>
+      </c>
+      <c r="JB8" t="n">
+        <v>306551</v>
+      </c>
+      <c r="JC8" t="n">
+        <v>2546810</v>
+      </c>
+      <c r="JD8" t="n">
+        <v>1324281</v>
+      </c>
+      <c r="JE8" t="n">
+        <v>603373</v>
+      </c>
+      <c r="JF8" t="n">
+        <v>360587</v>
+      </c>
+      <c r="JG8" t="n">
+        <v>310609</v>
+      </c>
+      <c r="JH8" t="n">
+        <v>290821</v>
+      </c>
+      <c r="JI8" t="n">
+        <v>350608</v>
+      </c>
+      <c r="JJ8" t="n">
+        <v>282964</v>
+      </c>
+      <c r="JK8" t="n">
+        <v>353734</v>
+      </c>
+      <c r="JL8" t="n">
+        <v>290058</v>
+      </c>
+      <c r="JM8" t="n">
+        <v>343854</v>
+      </c>
+      <c r="JN8" t="n">
+        <v>7364250</v>
+      </c>
+      <c r="JO8" t="n">
+        <v>2205046</v>
+      </c>
+      <c r="JP8" t="n">
+        <v>6108538</v>
+      </c>
+      <c r="JQ8" t="n">
+        <v>3139541</v>
+      </c>
+      <c r="JR8" t="n">
+        <v>2367470</v>
+      </c>
+      <c r="JS8" t="n">
+        <v>2503199</v>
+      </c>
+      <c r="JT8" t="n">
+        <v>1880462</v>
+      </c>
+      <c r="JU8" t="n">
+        <v>2569744</v>
+      </c>
+      <c r="JV8" t="n">
+        <v>2755949</v>
+      </c>
+      <c r="JW8" t="n">
+        <v>1659246</v>
+      </c>
+      <c r="JX8" t="n">
+        <v>3066418</v>
+      </c>
+      <c r="JY8" t="n">
+        <v>2103389</v>
+      </c>
+      <c r="JZ8" t="n">
+        <v>2113741</v>
+      </c>
+      <c r="KA8" t="n">
+        <v>32472743</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -5897,6 +7202,267 @@
       <c r="GR9" t="n">
         <v>361333</v>
       </c>
+      <c r="GS9" t="n">
+        <v>336134</v>
+      </c>
+      <c r="GT9" t="n">
+        <v>264048</v>
+      </c>
+      <c r="GU9" t="n">
+        <v>719467</v>
+      </c>
+      <c r="GV9" t="n">
+        <v>586307</v>
+      </c>
+      <c r="GW9" t="n">
+        <v>238966</v>
+      </c>
+      <c r="GX9" t="n">
+        <v>344098</v>
+      </c>
+      <c r="GY9" t="n">
+        <v>285480</v>
+      </c>
+      <c r="GZ9" t="n">
+        <v>299084</v>
+      </c>
+      <c r="HA9" t="n">
+        <v>4500145</v>
+      </c>
+      <c r="HB9" t="n">
+        <v>994130</v>
+      </c>
+      <c r="HC9" t="n">
+        <v>957229</v>
+      </c>
+      <c r="HD9" t="n">
+        <v>658760</v>
+      </c>
+      <c r="HE9" t="n">
+        <v>882401</v>
+      </c>
+      <c r="HF9" t="n">
+        <v>919493</v>
+      </c>
+      <c r="HG9" t="n">
+        <v>584499</v>
+      </c>
+      <c r="HH9" t="n">
+        <v>979317</v>
+      </c>
+      <c r="HI9" t="n">
+        <v>1097124</v>
+      </c>
+      <c r="HJ9" t="n">
+        <v>682380</v>
+      </c>
+      <c r="HK9" t="n">
+        <v>843192</v>
+      </c>
+      <c r="HL9" t="n">
+        <v>687011</v>
+      </c>
+      <c r="HM9" t="n">
+        <v>717837</v>
+      </c>
+      <c r="HN9" t="n">
+        <v>10003373</v>
+      </c>
+      <c r="HO9" t="n">
+        <v>377325</v>
+      </c>
+      <c r="HP9" t="n">
+        <v>367770</v>
+      </c>
+      <c r="HQ9" t="n">
+        <v>317469</v>
+      </c>
+      <c r="HR9" t="n">
+        <v>281315</v>
+      </c>
+      <c r="HS9" t="n">
+        <v>194238</v>
+      </c>
+      <c r="HT9" t="n">
+        <v>104095</v>
+      </c>
+      <c r="HU9" t="n">
+        <v>138022</v>
+      </c>
+      <c r="HV9" t="n">
+        <v>139796</v>
+      </c>
+      <c r="HW9" t="n">
+        <v>112812</v>
+      </c>
+      <c r="HX9" t="n">
+        <v>167637</v>
+      </c>
+      <c r="HY9" t="n">
+        <v>169261</v>
+      </c>
+      <c r="HZ9" t="n">
+        <v>206284</v>
+      </c>
+      <c r="IA9" t="n">
+        <v>2576024</v>
+      </c>
+      <c r="IB9" t="n">
+        <v>2101</v>
+      </c>
+      <c r="IC9" t="n">
+        <v>2527</v>
+      </c>
+      <c r="ID9" t="n">
+        <v>7719</v>
+      </c>
+      <c r="IE9" t="n">
+        <v>17351</v>
+      </c>
+      <c r="IF9" t="n">
+        <v>26601</v>
+      </c>
+      <c r="IG9" t="n">
+        <v>20541</v>
+      </c>
+      <c r="IH9" t="n">
+        <v>26761</v>
+      </c>
+      <c r="II9" t="n">
+        <v>21271</v>
+      </c>
+      <c r="IJ9" t="n">
+        <v>12983</v>
+      </c>
+      <c r="IK9" t="n">
+        <v>11444</v>
+      </c>
+      <c r="IL9" t="n">
+        <v>9543</v>
+      </c>
+      <c r="IM9" t="n">
+        <v>7334</v>
+      </c>
+      <c r="IN9" t="n">
+        <v>166176</v>
+      </c>
+      <c r="IO9" t="n">
+        <v>158807</v>
+      </c>
+      <c r="IP9" t="n">
+        <v>141270</v>
+      </c>
+      <c r="IQ9" t="n">
+        <v>181316</v>
+      </c>
+      <c r="IR9" t="n">
+        <v>229869</v>
+      </c>
+      <c r="IS9" t="n">
+        <v>272625</v>
+      </c>
+      <c r="IT9" t="n">
+        <v>240822</v>
+      </c>
+      <c r="IU9" t="n">
+        <v>277444</v>
+      </c>
+      <c r="IV9" t="n">
+        <v>259660</v>
+      </c>
+      <c r="IW9" t="n">
+        <v>183294</v>
+      </c>
+      <c r="IX9" t="n">
+        <v>286782</v>
+      </c>
+      <c r="IY9" t="n">
+        <v>243059</v>
+      </c>
+      <c r="IZ9" t="n">
+        <v>190676</v>
+      </c>
+      <c r="JA9" t="n">
+        <v>2665624</v>
+      </c>
+      <c r="JB9" t="n">
+        <v>1351468</v>
+      </c>
+      <c r="JC9" t="n">
+        <v>2669721</v>
+      </c>
+      <c r="JD9" t="n">
+        <v>819189</v>
+      </c>
+      <c r="JE9" t="n">
+        <v>431972</v>
+      </c>
+      <c r="JF9" t="n">
+        <v>295859</v>
+      </c>
+      <c r="JG9" t="n">
+        <v>238863</v>
+      </c>
+      <c r="JH9" t="n">
+        <v>292608</v>
+      </c>
+      <c r="JI9" t="n">
+        <v>279211</v>
+      </c>
+      <c r="JJ9" t="n">
+        <v>210469</v>
+      </c>
+      <c r="JK9" t="n">
+        <v>269397</v>
+      </c>
+      <c r="JL9" t="n">
+        <v>232145</v>
+      </c>
+      <c r="JM9" t="n">
+        <v>305299</v>
+      </c>
+      <c r="JN9" t="n">
+        <v>7396201</v>
+      </c>
+      <c r="JO9" t="n">
+        <v>3994159</v>
+      </c>
+      <c r="JP9" t="n">
+        <v>3423966</v>
+      </c>
+      <c r="JQ9" t="n">
+        <v>2152113</v>
+      </c>
+      <c r="JR9" t="n">
+        <v>2390604</v>
+      </c>
+      <c r="JS9" t="n">
+        <v>2179259</v>
+      </c>
+      <c r="JT9" t="n">
+        <v>1751934</v>
+      </c>
+      <c r="JU9" t="n">
+        <v>2354959</v>
+      </c>
+      <c r="JV9" t="n">
+        <v>2380172</v>
+      </c>
+      <c r="JW9" t="n">
+        <v>1800167</v>
+      </c>
+      <c r="JX9" t="n">
+        <v>3452298</v>
+      </c>
+      <c r="JY9" t="n">
+        <v>2656338</v>
+      </c>
+      <c r="JZ9" t="n">
+        <v>2806046</v>
+      </c>
+      <c r="KA9" t="n">
+        <v>31342015</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -6499,6 +8065,267 @@
       <c r="GR10" t="n">
         <v>426860</v>
       </c>
+      <c r="GS10" t="n">
+        <v>274198</v>
+      </c>
+      <c r="GT10" t="n">
+        <v>305320</v>
+      </c>
+      <c r="GU10" t="n">
+        <v>648244</v>
+      </c>
+      <c r="GV10" t="n">
+        <v>533096</v>
+      </c>
+      <c r="GW10" t="n">
+        <v>250029</v>
+      </c>
+      <c r="GX10" t="n">
+        <v>268937</v>
+      </c>
+      <c r="GY10" t="n">
+        <v>256006</v>
+      </c>
+      <c r="GZ10" t="n">
+        <v>401679</v>
+      </c>
+      <c r="HA10" t="n">
+        <v>4250562</v>
+      </c>
+      <c r="HB10" t="n">
+        <v>602609</v>
+      </c>
+      <c r="HC10" t="n">
+        <v>493355</v>
+      </c>
+      <c r="HD10" t="n">
+        <v>512555</v>
+      </c>
+      <c r="HE10" t="n">
+        <v>784556</v>
+      </c>
+      <c r="HF10" t="n">
+        <v>685321</v>
+      </c>
+      <c r="HG10" t="n">
+        <v>763604</v>
+      </c>
+      <c r="HH10" t="n">
+        <v>1062885</v>
+      </c>
+      <c r="HI10" t="n">
+        <v>1060227</v>
+      </c>
+      <c r="HJ10" t="n">
+        <v>700173</v>
+      </c>
+      <c r="HK10" t="n">
+        <v>744556</v>
+      </c>
+      <c r="HL10" t="n">
+        <v>724618</v>
+      </c>
+      <c r="HM10" t="n">
+        <v>846972</v>
+      </c>
+      <c r="HN10" t="n">
+        <v>8981431</v>
+      </c>
+      <c r="HO10" t="n">
+        <v>284729</v>
+      </c>
+      <c r="HP10" t="n">
+        <v>533323</v>
+      </c>
+      <c r="HQ10" t="n">
+        <v>300106</v>
+      </c>
+      <c r="HR10" t="n">
+        <v>288959</v>
+      </c>
+      <c r="HS10" t="n">
+        <v>175762</v>
+      </c>
+      <c r="HT10" t="n">
+        <v>129668</v>
+      </c>
+      <c r="HU10" t="n">
+        <v>155132</v>
+      </c>
+      <c r="HV10" t="n">
+        <v>133825</v>
+      </c>
+      <c r="HW10" t="n">
+        <v>125320</v>
+      </c>
+      <c r="HX10" t="n">
+        <v>173124</v>
+      </c>
+      <c r="HY10" t="n">
+        <v>154603</v>
+      </c>
+      <c r="HZ10" t="n">
+        <v>272276</v>
+      </c>
+      <c r="IA10" t="n">
+        <v>2726827</v>
+      </c>
+      <c r="IB10" t="n">
+        <v>4653</v>
+      </c>
+      <c r="IC10" t="n">
+        <v>4340</v>
+      </c>
+      <c r="ID10" t="n">
+        <v>8544</v>
+      </c>
+      <c r="IE10" t="n">
+        <v>16658</v>
+      </c>
+      <c r="IF10" t="n">
+        <v>28501</v>
+      </c>
+      <c r="IG10" t="n">
+        <v>28418</v>
+      </c>
+      <c r="IH10" t="n">
+        <v>26299</v>
+      </c>
+      <c r="II10" t="n">
+        <v>19239</v>
+      </c>
+      <c r="IJ10" t="n">
+        <v>13795</v>
+      </c>
+      <c r="IK10" t="n">
+        <v>13034</v>
+      </c>
+      <c r="IL10" t="n">
+        <v>9902</v>
+      </c>
+      <c r="IM10" t="n">
+        <v>6048</v>
+      </c>
+      <c r="IN10" t="n">
+        <v>179431</v>
+      </c>
+      <c r="IO10" t="n">
+        <v>129478</v>
+      </c>
+      <c r="IP10" t="n">
+        <v>139636</v>
+      </c>
+      <c r="IQ10" t="n">
+        <v>201272</v>
+      </c>
+      <c r="IR10" t="n">
+        <v>257855</v>
+      </c>
+      <c r="IS10" t="n">
+        <v>271046</v>
+      </c>
+      <c r="IT10" t="n">
+        <v>252025</v>
+      </c>
+      <c r="IU10" t="n">
+        <v>289298</v>
+      </c>
+      <c r="IV10" t="n">
+        <v>287826</v>
+      </c>
+      <c r="IW10" t="n">
+        <v>218917</v>
+      </c>
+      <c r="IX10" t="n">
+        <v>283501</v>
+      </c>
+      <c r="IY10" t="n">
+        <v>223602</v>
+      </c>
+      <c r="IZ10" t="n">
+        <v>226901</v>
+      </c>
+      <c r="JA10" t="n">
+        <v>2781357</v>
+      </c>
+      <c r="JB10" t="n">
+        <v>293294</v>
+      </c>
+      <c r="JC10" t="n">
+        <v>2165468</v>
+      </c>
+      <c r="JD10" t="n">
+        <v>461874</v>
+      </c>
+      <c r="JE10" t="n">
+        <v>825541</v>
+      </c>
+      <c r="JF10" t="n">
+        <v>471990</v>
+      </c>
+      <c r="JG10" t="n">
+        <v>268977</v>
+      </c>
+      <c r="JH10" t="n">
+        <v>320870</v>
+      </c>
+      <c r="JI10" t="n">
+        <v>281797</v>
+      </c>
+      <c r="JJ10" t="n">
+        <v>273145</v>
+      </c>
+      <c r="JK10" t="n">
+        <v>308522</v>
+      </c>
+      <c r="JL10" t="n">
+        <v>307589</v>
+      </c>
+      <c r="JM10" t="n">
+        <v>330166</v>
+      </c>
+      <c r="JN10" t="n">
+        <v>6309233</v>
+      </c>
+      <c r="JO10" t="n">
+        <v>2127047</v>
+      </c>
+      <c r="JP10" t="n">
+        <v>4306112</v>
+      </c>
+      <c r="JQ10" t="n">
+        <v>2565522</v>
+      </c>
+      <c r="JR10" t="n">
+        <v>2536865</v>
+      </c>
+      <c r="JS10" t="n">
+        <v>2140969</v>
+      </c>
+      <c r="JT10" t="n">
+        <v>2020756</v>
+      </c>
+      <c r="JU10" t="n">
+        <v>2785073</v>
+      </c>
+      <c r="JV10" t="n">
+        <v>2402549</v>
+      </c>
+      <c r="JW10" t="n">
+        <v>2285851</v>
+      </c>
+      <c r="JX10" t="n">
+        <v>4318884</v>
+      </c>
+      <c r="JY10" t="n">
+        <v>3033749</v>
+      </c>
+      <c r="JZ10" t="n">
+        <v>3399254</v>
+      </c>
+      <c r="KA10" t="n">
+        <v>33922631</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -7101,6 +8928,267 @@
       <c r="GR11" t="n">
         <v>406974</v>
       </c>
+      <c r="GS11" t="n">
+        <v>317815</v>
+      </c>
+      <c r="GT11" t="n">
+        <v>401028</v>
+      </c>
+      <c r="GU11" t="n">
+        <v>700554</v>
+      </c>
+      <c r="GV11" t="n">
+        <v>532976</v>
+      </c>
+      <c r="GW11" t="n">
+        <v>338228</v>
+      </c>
+      <c r="GX11" t="n">
+        <v>418389</v>
+      </c>
+      <c r="GY11" t="n">
+        <v>324831</v>
+      </c>
+      <c r="GZ11" t="n">
+        <v>322282</v>
+      </c>
+      <c r="HA11" t="n">
+        <v>5006775</v>
+      </c>
+      <c r="HB11" t="n">
+        <v>677568</v>
+      </c>
+      <c r="HC11" t="n">
+        <v>984146</v>
+      </c>
+      <c r="HD11" t="n">
+        <v>754757</v>
+      </c>
+      <c r="HE11" t="n">
+        <v>787488</v>
+      </c>
+      <c r="HF11" t="n">
+        <v>702644</v>
+      </c>
+      <c r="HG11" t="n">
+        <v>833097</v>
+      </c>
+      <c r="HH11" t="n">
+        <v>1136223</v>
+      </c>
+      <c r="HI11" t="n">
+        <v>884662</v>
+      </c>
+      <c r="HJ11" t="n">
+        <v>720872</v>
+      </c>
+      <c r="HK11" t="n">
+        <v>906794</v>
+      </c>
+      <c r="HL11" t="n">
+        <v>750171</v>
+      </c>
+      <c r="HM11" t="n">
+        <v>675380</v>
+      </c>
+      <c r="HN11" t="n">
+        <v>9813802</v>
+      </c>
+      <c r="HO11" t="n">
+        <v>341413</v>
+      </c>
+      <c r="HP11" t="n">
+        <v>586863</v>
+      </c>
+      <c r="HQ11" t="n">
+        <v>377922</v>
+      </c>
+      <c r="HR11" t="n">
+        <v>339184</v>
+      </c>
+      <c r="HS11" t="n">
+        <v>260175</v>
+      </c>
+      <c r="HT11" t="n">
+        <v>229386</v>
+      </c>
+      <c r="HU11" t="n">
+        <v>219407</v>
+      </c>
+      <c r="HV11" t="n">
+        <v>201615</v>
+      </c>
+      <c r="HW11" t="n">
+        <v>217601</v>
+      </c>
+      <c r="HX11" t="n">
+        <v>265845</v>
+      </c>
+      <c r="HY11" t="n">
+        <v>262053</v>
+      </c>
+      <c r="HZ11" t="n">
+        <v>1038721</v>
+      </c>
+      <c r="IA11" t="n">
+        <v>4340185</v>
+      </c>
+      <c r="IB11" t="n">
+        <v>5445</v>
+      </c>
+      <c r="IC11" t="n">
+        <v>6396</v>
+      </c>
+      <c r="ID11" t="n">
+        <v>10937</v>
+      </c>
+      <c r="IE11" t="n">
+        <v>14246</v>
+      </c>
+      <c r="IF11" t="n">
+        <v>27517</v>
+      </c>
+      <c r="IG11" t="n">
+        <v>25994</v>
+      </c>
+      <c r="IH11" t="n">
+        <v>26541</v>
+      </c>
+      <c r="II11" t="n">
+        <v>16790</v>
+      </c>
+      <c r="IJ11" t="n">
+        <v>17984</v>
+      </c>
+      <c r="IK11" t="n">
+        <v>18697</v>
+      </c>
+      <c r="IL11" t="n">
+        <v>13270</v>
+      </c>
+      <c r="IM11" t="n">
+        <v>10864</v>
+      </c>
+      <c r="IN11" t="n">
+        <v>194681</v>
+      </c>
+      <c r="IO11" t="n">
+        <v>183847</v>
+      </c>
+      <c r="IP11" t="n">
+        <v>173942</v>
+      </c>
+      <c r="IQ11" t="n">
+        <v>238779</v>
+      </c>
+      <c r="IR11" t="n">
+        <v>248946</v>
+      </c>
+      <c r="IS11" t="n">
+        <v>326176</v>
+      </c>
+      <c r="IT11" t="n">
+        <v>295937</v>
+      </c>
+      <c r="IU11" t="n">
+        <v>284308</v>
+      </c>
+      <c r="IV11" t="n">
+        <v>227715</v>
+      </c>
+      <c r="IW11" t="n">
+        <v>213397</v>
+      </c>
+      <c r="IX11" t="n">
+        <v>304326</v>
+      </c>
+      <c r="IY11" t="n">
+        <v>258609</v>
+      </c>
+      <c r="IZ11" t="n">
+        <v>208984</v>
+      </c>
+      <c r="JA11" t="n">
+        <v>2964966</v>
+      </c>
+      <c r="JB11" t="n">
+        <v>447947</v>
+      </c>
+      <c r="JC11" t="n">
+        <v>3543830</v>
+      </c>
+      <c r="JD11" t="n">
+        <v>377138</v>
+      </c>
+      <c r="JE11" t="n">
+        <v>733828</v>
+      </c>
+      <c r="JF11" t="n">
+        <v>385336</v>
+      </c>
+      <c r="JG11" t="n">
+        <v>403109</v>
+      </c>
+      <c r="JH11" t="n">
+        <v>446255</v>
+      </c>
+      <c r="JI11" t="n">
+        <v>434679</v>
+      </c>
+      <c r="JJ11" t="n">
+        <v>456726</v>
+      </c>
+      <c r="JK11" t="n">
+        <v>498746</v>
+      </c>
+      <c r="JL11" t="n">
+        <v>516575</v>
+      </c>
+      <c r="JM11" t="n">
+        <v>504247</v>
+      </c>
+      <c r="JN11" t="n">
+        <v>8748416</v>
+      </c>
+      <c r="JO11" t="n">
+        <v>2741473</v>
+      </c>
+      <c r="JP11" t="n">
+        <v>5524872</v>
+      </c>
+      <c r="JQ11" t="n">
+        <v>2909717</v>
+      </c>
+      <c r="JR11" t="n">
+        <v>2698594</v>
+      </c>
+      <c r="JS11" t="n">
+        <v>2366099</v>
+      </c>
+      <c r="JT11" t="n">
+        <v>2213350</v>
+      </c>
+      <c r="JU11" t="n">
+        <v>2842267</v>
+      </c>
+      <c r="JV11" t="n">
+        <v>2317400</v>
+      </c>
+      <c r="JW11" t="n">
+        <v>1983870</v>
+      </c>
+      <c r="JX11" t="n">
+        <v>3281260</v>
+      </c>
+      <c r="JY11" t="n">
+        <v>2694987</v>
+      </c>
+      <c r="JZ11" t="n">
+        <v>2841927</v>
+      </c>
+      <c r="KA11" t="n">
+        <v>34415816</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -7703,6 +9791,267 @@
       <c r="GR12" t="n">
         <v>304184</v>
       </c>
+      <c r="GS12" t="n">
+        <v>283720</v>
+      </c>
+      <c r="GT12" t="n">
+        <v>552502</v>
+      </c>
+      <c r="GU12" t="n">
+        <v>909088</v>
+      </c>
+      <c r="GV12" t="n">
+        <v>1168653</v>
+      </c>
+      <c r="GW12" t="n">
+        <v>630159</v>
+      </c>
+      <c r="GX12" t="n">
+        <v>712193</v>
+      </c>
+      <c r="GY12" t="n">
+        <v>489242</v>
+      </c>
+      <c r="GZ12" t="n">
+        <v>384896</v>
+      </c>
+      <c r="HA12" t="n">
+        <v>6685438</v>
+      </c>
+      <c r="HB12" t="n">
+        <v>900767</v>
+      </c>
+      <c r="HC12" t="n">
+        <v>762671</v>
+      </c>
+      <c r="HD12" t="n">
+        <v>485713</v>
+      </c>
+      <c r="HE12" t="n">
+        <v>481508</v>
+      </c>
+      <c r="HF12" t="n">
+        <v>517638</v>
+      </c>
+      <c r="HG12" t="n">
+        <v>863001</v>
+      </c>
+      <c r="HH12" t="n">
+        <v>1214307</v>
+      </c>
+      <c r="HI12" t="n">
+        <v>1344294</v>
+      </c>
+      <c r="HJ12" t="n">
+        <v>842370</v>
+      </c>
+      <c r="HK12" t="n">
+        <v>950973</v>
+      </c>
+      <c r="HL12" t="n">
+        <v>700728</v>
+      </c>
+      <c r="HM12" t="n">
+        <v>551370</v>
+      </c>
+      <c r="HN12" t="n">
+        <v>9615340</v>
+      </c>
+      <c r="HO12" t="n">
+        <v>334919</v>
+      </c>
+      <c r="HP12" t="n">
+        <v>480460</v>
+      </c>
+      <c r="HQ12" t="n">
+        <v>205610</v>
+      </c>
+      <c r="HR12" t="n">
+        <v>184470</v>
+      </c>
+      <c r="HS12" t="n">
+        <v>176173</v>
+      </c>
+      <c r="HT12" t="n">
+        <v>190097</v>
+      </c>
+      <c r="HU12" t="n">
+        <v>240613</v>
+      </c>
+      <c r="HV12" t="n">
+        <v>279937</v>
+      </c>
+      <c r="HW12" t="n">
+        <v>218367</v>
+      </c>
+      <c r="HX12" t="n">
+        <v>291454</v>
+      </c>
+      <c r="HY12" t="n">
+        <v>290274</v>
+      </c>
+      <c r="HZ12" t="n">
+        <v>393255</v>
+      </c>
+      <c r="IA12" t="n">
+        <v>3285629</v>
+      </c>
+      <c r="IB12" t="n">
+        <v>3922</v>
+      </c>
+      <c r="IC12" t="n">
+        <v>2550</v>
+      </c>
+      <c r="ID12" t="n">
+        <v>2388</v>
+      </c>
+      <c r="IE12" t="n">
+        <v>3736</v>
+      </c>
+      <c r="IF12" t="n">
+        <v>8184</v>
+      </c>
+      <c r="IG12" t="n">
+        <v>25163</v>
+      </c>
+      <c r="IH12" t="n">
+        <v>33773</v>
+      </c>
+      <c r="II12" t="n">
+        <v>34314</v>
+      </c>
+      <c r="IJ12" t="n">
+        <v>32327</v>
+      </c>
+      <c r="IK12" t="n">
+        <v>28517</v>
+      </c>
+      <c r="IL12" t="n">
+        <v>14574</v>
+      </c>
+      <c r="IM12" t="n">
+        <v>5999</v>
+      </c>
+      <c r="IN12" t="n">
+        <v>195447</v>
+      </c>
+      <c r="IO12" t="n">
+        <v>113994</v>
+      </c>
+      <c r="IP12" t="n">
+        <v>42015</v>
+      </c>
+      <c r="IQ12" t="n">
+        <v>28099</v>
+      </c>
+      <c r="IR12" t="n">
+        <v>14437</v>
+      </c>
+      <c r="IS12" t="n">
+        <v>36042</v>
+      </c>
+      <c r="IT12" t="n">
+        <v>128779</v>
+      </c>
+      <c r="IU12" t="n">
+        <v>258602</v>
+      </c>
+      <c r="IV12" t="n">
+        <v>312343</v>
+      </c>
+      <c r="IW12" t="n">
+        <v>289736</v>
+      </c>
+      <c r="IX12" t="n">
+        <v>330408</v>
+      </c>
+      <c r="IY12" t="n">
+        <v>191577</v>
+      </c>
+      <c r="IZ12" t="n">
+        <v>135736</v>
+      </c>
+      <c r="JA12" t="n">
+        <v>1881768</v>
+      </c>
+      <c r="JB12" t="n">
+        <v>3594068</v>
+      </c>
+      <c r="JC12" t="n">
+        <v>991245</v>
+      </c>
+      <c r="JD12" t="n">
+        <v>215551</v>
+      </c>
+      <c r="JE12" t="n">
+        <v>211495</v>
+      </c>
+      <c r="JF12" t="n">
+        <v>469011</v>
+      </c>
+      <c r="JG12" t="n">
+        <v>637080</v>
+      </c>
+      <c r="JH12" t="n">
+        <v>854322</v>
+      </c>
+      <c r="JI12" t="n">
+        <v>888338</v>
+      </c>
+      <c r="JJ12" t="n">
+        <v>510965</v>
+      </c>
+      <c r="JK12" t="n">
+        <v>797497</v>
+      </c>
+      <c r="JL12" t="n">
+        <v>502421</v>
+      </c>
+      <c r="JM12" t="n">
+        <v>521782</v>
+      </c>
+      <c r="JN12" t="n">
+        <v>10193775</v>
+      </c>
+      <c r="JO12" t="n">
+        <v>4343642</v>
+      </c>
+      <c r="JP12" t="n">
+        <v>3600758</v>
+      </c>
+      <c r="JQ12" t="n">
+        <v>1155709</v>
+      </c>
+      <c r="JR12" t="n">
+        <v>868853</v>
+      </c>
+      <c r="JS12" t="n">
+        <v>775822</v>
+      </c>
+      <c r="JT12" t="n">
+        <v>1186629</v>
+      </c>
+      <c r="JU12" t="n">
+        <v>1575698</v>
+      </c>
+      <c r="JV12" t="n">
+        <v>1619206</v>
+      </c>
+      <c r="JW12" t="n">
+        <v>1388463</v>
+      </c>
+      <c r="JX12" t="n">
+        <v>2297789</v>
+      </c>
+      <c r="JY12" t="n">
+        <v>2152897</v>
+      </c>
+      <c r="JZ12" t="n">
+        <v>1800631</v>
+      </c>
+      <c r="KA12" t="n">
+        <v>22766097</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -8301,6 +10650,270 @@
       </c>
       <c r="GQ13" t="n">
         <v>357685</v>
+      </c>
+      <c r="GR13" t="n">
+        <v>534041</v>
+      </c>
+      <c r="GS13" t="n">
+        <v>217472</v>
+      </c>
+      <c r="GT13" t="n">
+        <v>17005</v>
+      </c>
+      <c r="GU13" t="n">
+        <v>64123</v>
+      </c>
+      <c r="GV13" t="n">
+        <v>280391</v>
+      </c>
+      <c r="GW13" t="n">
+        <v>320350</v>
+      </c>
+      <c r="GX13" t="n">
+        <v>358653</v>
+      </c>
+      <c r="GY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA13" t="n">
+        <v>3268909</v>
+      </c>
+      <c r="HB13" t="n">
+        <v>631024</v>
+      </c>
+      <c r="HC13" t="n">
+        <v>883113</v>
+      </c>
+      <c r="HD13" t="n">
+        <v>576610</v>
+      </c>
+      <c r="HE13" t="n">
+        <v>693852</v>
+      </c>
+      <c r="HF13" t="n">
+        <v>384794</v>
+      </c>
+      <c r="HG13" t="n">
+        <v>38165</v>
+      </c>
+      <c r="HH13" t="n">
+        <v>157764</v>
+      </c>
+      <c r="HI13" t="n">
+        <v>444640</v>
+      </c>
+      <c r="HJ13" t="n">
+        <v>490708</v>
+      </c>
+      <c r="HK13" t="n">
+        <v>522070</v>
+      </c>
+      <c r="HL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN13" t="n">
+        <v>4822740</v>
+      </c>
+      <c r="HO13" t="n">
+        <v>487921</v>
+      </c>
+      <c r="HP13" t="n">
+        <v>606775</v>
+      </c>
+      <c r="HQ13" t="n">
+        <v>241834</v>
+      </c>
+      <c r="HR13" t="n">
+        <v>306392</v>
+      </c>
+      <c r="HS13" t="n">
+        <v>121347</v>
+      </c>
+      <c r="HT13" t="n">
+        <v>511</v>
+      </c>
+      <c r="HU13" t="n">
+        <v>18208</v>
+      </c>
+      <c r="HV13" t="n">
+        <v>71275</v>
+      </c>
+      <c r="HW13" t="n">
+        <v>98492</v>
+      </c>
+      <c r="HX13" t="n">
+        <v>153972</v>
+      </c>
+      <c r="HY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA13" t="n">
+        <v>2106727</v>
+      </c>
+      <c r="IB13" t="n">
+        <v>4562</v>
+      </c>
+      <c r="IC13" t="n">
+        <v>3918</v>
+      </c>
+      <c r="ID13" t="n">
+        <v>8116</v>
+      </c>
+      <c r="IE13" t="n">
+        <v>24900</v>
+      </c>
+      <c r="IF13" t="n">
+        <v>16531</v>
+      </c>
+      <c r="IG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH13" t="n">
+        <v>306</v>
+      </c>
+      <c r="II13" t="n">
+        <v>2318</v>
+      </c>
+      <c r="IJ13" t="n">
+        <v>4525</v>
+      </c>
+      <c r="IK13" t="n">
+        <v>6582</v>
+      </c>
+      <c r="IL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN13" t="n">
+        <v>71758</v>
+      </c>
+      <c r="IO13" t="n">
+        <v>113656</v>
+      </c>
+      <c r="IP13" t="n">
+        <v>90730</v>
+      </c>
+      <c r="IQ13" t="n">
+        <v>134745</v>
+      </c>
+      <c r="IR13" t="n">
+        <v>175182</v>
+      </c>
+      <c r="IS13" t="n">
+        <v>104525</v>
+      </c>
+      <c r="IT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU13" t="n">
+        <v>477</v>
+      </c>
+      <c r="IV13" t="n">
+        <v>8776</v>
+      </c>
+      <c r="IW13" t="n">
+        <v>20670</v>
+      </c>
+      <c r="IX13" t="n">
+        <v>55476</v>
+      </c>
+      <c r="IY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA13" t="n">
+        <v>704237</v>
+      </c>
+      <c r="JB13" t="n">
+        <v>662808</v>
+      </c>
+      <c r="JC13" t="n">
+        <v>2211386</v>
+      </c>
+      <c r="JD13" t="n">
+        <v>1002384</v>
+      </c>
+      <c r="JE13" t="n">
+        <v>2811636</v>
+      </c>
+      <c r="JF13" t="n">
+        <v>398096</v>
+      </c>
+      <c r="JG13" t="n">
+        <v>300</v>
+      </c>
+      <c r="JH13" t="n">
+        <v>6545</v>
+      </c>
+      <c r="JI13" t="n">
+        <v>199537</v>
+      </c>
+      <c r="JJ13" t="n">
+        <v>221936</v>
+      </c>
+      <c r="JK13" t="n">
+        <v>251157</v>
+      </c>
+      <c r="JL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN13" t="n">
+        <v>7765785</v>
+      </c>
+      <c r="JO13" t="n">
+        <v>1592975</v>
+      </c>
+      <c r="JP13" t="n">
+        <v>2663144</v>
+      </c>
+      <c r="JQ13" t="n">
+        <v>1413914</v>
+      </c>
+      <c r="JR13" t="n">
+        <v>1607953</v>
+      </c>
+      <c r="JS13" t="n">
+        <v>745693</v>
+      </c>
+      <c r="JT13" t="n">
+        <v>121448</v>
+      </c>
+      <c r="JU13" t="n">
+        <v>245984</v>
+      </c>
+      <c r="JV13" t="n">
+        <v>558874</v>
+      </c>
+      <c r="JW13" t="n">
+        <v>774677</v>
+      </c>
+      <c r="JX13" t="n">
+        <v>1201949</v>
+      </c>
+      <c r="JY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA13" t="n">
+        <v>10926611</v>
       </c>
     </row>
   </sheetData>

--- a/表單1.xlsx
+++ b/表單1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
